--- a/download/file2.xlsx
+++ b/download/file2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aolej\Desktop\gutczi\WSB\OpenSource-Python\projekt-zaliczeniowy\changelog\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56227025-DB25-4A96-BE75-25F1D65B8CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AD5A9A-9C60-4B9C-8B69-47F36BD55892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="0" windowWidth="21615" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>Katalog produktów na rok</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>Brzeszczot bagnetowy do drewna o długości 300 mm.</t>
-  </si>
-  <si>
-    <t>TWOJAsTaRa</t>
   </si>
 </sst>
 </file>
@@ -1994,11 +1991,6 @@
       </c>
       <c r="H11" s="1">
         <v>870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
